--- a/data/originalData/衛星リスト.xlsx
+++ b/data/originalData/衛星リスト.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\康行\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18098" windowHeight="8933"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,18 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
-    <t>CUTE-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>東工大</t>
     <rPh sb="0" eb="3">
       <t>トウコウダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CUBESAT XI-IV</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -179,47 +169,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>position06.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position07.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position08.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RISING 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position09.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position10.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position11.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position12.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position13.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position14.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUTE-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUBESAT XI-IV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>PRISM (HITOMI)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position06.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position07.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position08.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RISING 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position09.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position10.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position11.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position12.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position13.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position14.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -227,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -238,6 +236,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -261,8 +277,674 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -271,8 +953,230 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="223">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="222" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,7 +1234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +1269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +1446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,221 +1456,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2014</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2014</v>
@@ -775,6 +1679,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>